--- a/data/trans_bre/P19C08-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Provincia-trans_bre.xlsx
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.998983062993125</v>
+        <v>-1.987225503503903</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.163318356968836</v>
+        <v>-1.403608169536736</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.912978491036115</v>
+        <v>-3.368578330023099</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="6" t="inlineStr"/>
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.076249392581085</v>
+        <v>2.037179041060032</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.641596885934176</v>
+        <v>1.646653129989632</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>-0.3171505893610739</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1641436519503436</v>
+        <v>0.1641436519503435</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="inlineStr">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.110110277267773</v>
+        <v>-1.684254166246828</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -763,13 +763,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>1.618188440250938</v>
+        <v>1.422813634399699</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8117184640780922</v>
+        <v>0.8308974764740393</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
@@ -827,18 +827,16 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.350117399292903</v>
+        <v>-2.378397542435429</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3198072344620828</v>
+        <v>-0.316875327176445</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
-      <c r="H11" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="inlineStr"/>
     </row>
@@ -850,21 +848,19 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.198110634005038</v>
+        <v>2.274770656291932</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9049575641705307</v>
+        <v>1.108638426925211</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.260845023665239</v>
+        <v>2.363577640102818</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8502637490535278</v>
+        <v>0.8433535462461672</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
-      <c r="H12" s="6" t="n">
-        <v>2.738239297422884</v>
-      </c>
+      <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="inlineStr"/>
     </row>
@@ -908,10 +904,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.890467742509138</v>
+        <v>-1.9678582798123</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.734984677422742</v>
+        <v>-4.110385514278052</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="inlineStr"/>
@@ -931,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2724392975953337</v>
+        <v>0.2743012230648972</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="inlineStr"/>
@@ -961,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2530513441019905</v>
+        <v>0.2530513441019904</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9297096893998127</v>
@@ -969,7 +965,7 @@
       <c r="H16" s="6" t="inlineStr"/>
       <c r="I16" s="6" t="inlineStr"/>
       <c r="J16" s="6" t="n">
-        <v>0.4526846391169941</v>
+        <v>0.4526846391169938</v>
       </c>
     </row>
     <row r="17">
@@ -980,12 +976,12 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.139651358512114</v>
+        <v>-1.160034429569778</v>
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>-0.913635057539373</v>
+        <v>-0.9569096412083764</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="inlineStr"/>
@@ -1000,12 +996,12 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.580379315194697</v>
+        <v>2.134650668009712</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>1.216205827531145</v>
+        <v>1.262044567085397</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
@@ -1033,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.2678342671575148</v>
+        <v>-0.2678342671575147</v>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
@@ -1045,7 +1041,7 @@
       </c>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>-0.5141934025857363</v>
+        <v>-0.5141934025857362</v>
       </c>
     </row>
     <row r="20">
@@ -1059,11 +1055,11 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3254597596374676</v>
+        <v>0.3164807188495704</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>-2.52157335053489</v>
+        <v>-2.241926880372332</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
@@ -1078,14 +1074,14 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.897990688452675</v>
+        <v>3.324035516509649</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.790902044959452</v>
+        <v>4.909870827122836</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.5009108958610247</v>
+        <v>0.4980620165890381</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
@@ -1113,7 +1109,7 @@
         <v>0.7311031351297781</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.4840216018148703</v>
+        <v>-0.4840216018148704</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>1.957697261421099</v>
@@ -1127,7 +1123,7 @@
         </is>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.3415564158683311</v>
+        <v>-0.3415564158683312</v>
       </c>
     </row>
     <row r="23">
@@ -1138,22 +1134,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.2084878513504407</v>
+        <v>-0.2217806797830026</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.8703654868923</v>
+        <v>-1.662610830841122</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1965122222640492</v>
+        <v>0.2129671049262081</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.263373757350027</v>
+        <v>-2.193746314485737</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>-0.8270211152730039</v>
+        <v>-0.8419147976839134</v>
       </c>
     </row>
     <row r="24">
@@ -1164,22 +1160,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.20034119026217</v>
+        <v>1.252797802235138</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2941543180611873</v>
+        <v>0.2729968982135336</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.21535098374141</v>
+        <v>2.210234685977781</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7467928503058817</v>
+        <v>0.6986964952764497</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="inlineStr"/>
       <c r="I24" s="6" t="inlineStr"/>
       <c r="J24" s="6" t="n">
-        <v>1.696042661640175</v>
+        <v>1.299261928821986</v>
       </c>
     </row>
     <row r="25">
@@ -1203,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.09213849172964808</v>
+        <v>-0.09213849172964818</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3389445211830106</v>
@@ -1213,7 +1209,7 @@
       </c>
       <c r="I25" s="6" t="inlineStr"/>
       <c r="J25" s="6" t="n">
-        <v>-0.1236432087801307</v>
+        <v>-0.1236432087801308</v>
       </c>
     </row>
     <row r="26">
@@ -1224,22 +1220,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.7367436371523144</v>
+        <v>-0.7645122943851489</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.036442581830836</v>
+        <v>-1.160557599935757</v>
       </c>
       <c r="E26" s="5" t="inlineStr"/>
       <c r="F26" s="5" t="n">
-        <v>-0.9746169570793073</v>
+        <v>-0.8671293755745969</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7802439221805281</v>
+        <v>-0.7545407682814059</v>
       </c>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>-0.7759728371666649</v>
+        <v>-0.7440821809522021</v>
       </c>
     </row>
     <row r="27">
@@ -1250,22 +1246,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.518897274397848</v>
+        <v>1.436165958578581</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5010500915867214</v>
+        <v>0.5537380239977477</v>
       </c>
       <c r="E27" s="5" t="inlineStr"/>
       <c r="F27" s="5" t="n">
-        <v>0.669430600227795</v>
+        <v>0.6971039313975772</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>7.028822524189294</v>
+        <v>5.4081624522633</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>2.254437553937873</v>
+        <v>2.624324932466167</v>
       </c>
     </row>
     <row r="28">
@@ -1312,28 +1308,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.1464882896342437</v>
+        <v>-0.1455244595567493</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4550536620427721</v>
+        <v>-0.4934654088095299</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.1551914593211905</v>
+        <v>-0.1684899804961992</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.5179518820652582</v>
+        <v>-0.5023378876116351</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.3938399496924989</v>
+        <v>-0.3429017528365528</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.5366016672713348</v>
+        <v>-0.5581917396115574</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.7447160182500271</v>
+        <v>-0.8540732877468672</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.615120371730687</v>
+        <v>-0.6063572044959742</v>
       </c>
     </row>
     <row r="30">
@@ -1344,28 +1340,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5632854666168655</v>
+        <v>0.5798479095733343</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4017021930801276</v>
+        <v>0.3939780170680079</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3080054495210867</v>
+        <v>0.2961271654211791</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2212736373573889</v>
+        <v>0.2305792535105566</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2.77399570378874</v>
+        <v>3.121389724891809</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.041374935754157</v>
+        <v>0.936321419460444</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>6.433543426471918</v>
+        <v>5.4225278288111</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.8349851734152869</v>
+        <v>0.8025010188536807</v>
       </c>
     </row>
     <row r="31">
